--- a/MyFiles/Excel/ExcelDemo.xlsx
+++ b/MyFiles/Excel/ExcelDemo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID|str</t>
   </si>
@@ -36,13 +36,61 @@
     <t>CWK|dbl</t>
   </si>
   <si>
+    <t>BB|long</t>
+  </si>
+  <si>
+    <t>AA|List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>DD|List&lt;bool&gt;</t>
+  </si>
+  <si>
+    <t>EE|List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>WW|Dictionary&lt;string, bool&gt;</t>
+  </si>
+  <si>
+    <t>XX|Dictionary&lt;string, List&lt;double&gt;&gt;</t>
+  </si>
+  <si>
     <t>airww22</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>"a","b"</t>
+  </si>
+  <si>
+    <t>{"a",true},{"b",false},{"c",true}</t>
+  </si>
+  <si>
+    <t>{"a",new List&lt;double&gt;{2d}},{"b",new List&lt;double&gt;{}},{"c",new List&lt;double&gt;{1d,2d,3d}}</t>
   </si>
   <si>
     <t>SSD222222</t>
   </si>
   <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>"c"</t>
+  </si>
+  <si>
     <t>333ss222233</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>"d"</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>"e"</t>
   </si>
 </sst>
 </file>
@@ -1056,21 +1104,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3873"/>
+  <dimension ref="A1:L3873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="2" max="2" width="19.4684684684685" customWidth="1"/>
     <col min="3" max="3" width="14.7927927927928" customWidth="1"/>
     <col min="4" max="4" width="13.5405405405405" customWidth="1"/>
     <col min="5" max="5" width="14.972972972973" customWidth="1"/>
+    <col min="7" max="7" width="17.3423423423423" customWidth="1"/>
+    <col min="8" max="8" width="16.2792792792793" customWidth="1"/>
+    <col min="9" max="9" width="15.6126126126126" customWidth="1"/>
+    <col min="10" max="10" width="20.1891891891892" customWidth="1"/>
+    <col min="11" max="11" width="41.0990990990991" customWidth="1"/>
+    <col min="12" max="12" width="63.1981981981982" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,13 +1143,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
         <v>3333</v>
@@ -1106,16 +1178,32 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>23</v>
+      <c r="F2"/>
+      <c r="G2">
+        <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>777</v>
@@ -1126,16 +1214,23 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>33</v>
+      <c r="F3"/>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
         <v>888</v>
@@ -1146,11 +1241,21 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>4</v>
+      <c r="F4"/>
+      <c r="G4">
+        <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1166,8 +1271,18 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5"/>
+      <c r="G5">
         <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/MyFiles/Excel/ExcelDemo.xlsx
+++ b/MyFiles/Excel/ExcelDemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14725"/>
+    <workbookView windowWidth="25045" windowHeight="13234"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID|str</t>
   </si>
@@ -54,9 +54,6 @@
     <t>XX|Dictionary&lt;string, List&lt;double&gt;&gt;</t>
   </si>
   <si>
-    <t>airww22</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -69,16 +66,13 @@
     <t>{"a",new List&lt;double&gt;{2d}},{"b",new List&lt;double&gt;{}},{"c",new List&lt;double&gt;{1d,2d,3d}}</t>
   </si>
   <si>
-    <t>SSD222222</t>
+    <t>S444</t>
   </si>
   <si>
     <t>2,3</t>
   </si>
   <si>
     <t>"c"</t>
-  </si>
-  <si>
-    <t>333ss222233</t>
   </si>
   <si>
     <t>1,5</t>
@@ -1107,7 +1101,7 @@
   <dimension ref="A1:L3873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1166,8 +1160,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+      <c r="B2" s="2">
+        <v>333</v>
       </c>
       <c r="C2" s="3">
         <v>3333</v>
@@ -1178,24 +1172,23 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2"/>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1203,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>777</v>
@@ -1214,23 +1207,22 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3"/>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
+      <c r="B4" s="2">
+        <v>5555</v>
       </c>
       <c r="C4" s="3">
         <v>888</v>
@@ -1241,18 +1233,17 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4"/>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1271,18 +1262,17 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5"/>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/MyFiles/Excel/ExcelDemo.xlsx
+++ b/MyFiles/Excel/ExcelDemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25045" windowHeight="13234"/>
+    <workbookView windowHeight="14725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:L3873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1199,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>777</v>
+        <v>7773</v>
       </c>
       <c r="D3">
         <v>42323</v>

--- a/MyFiles/Excel/ExcelDemo.xlsx
+++ b/MyFiles/Excel/ExcelDemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14725"/>
+    <workbookView windowWidth="11922" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ID|str</t>
   </si>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:L3873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1109,13 +1109,13 @@
     <col min="2" max="2" width="19.4684684684685" customWidth="1"/>
     <col min="3" max="3" width="14.7927927927928" customWidth="1"/>
     <col min="4" max="4" width="13.5405405405405" customWidth="1"/>
-    <col min="5" max="5" width="14.972972972973" customWidth="1"/>
-    <col min="7" max="7" width="17.3423423423423" customWidth="1"/>
+    <col min="5" max="5" width="22.5045045045045" customWidth="1"/>
+    <col min="7" max="7" width="33.972972972973" customWidth="1"/>
     <col min="8" max="8" width="16.2792792792793" customWidth="1"/>
     <col min="9" max="9" width="15.6126126126126" customWidth="1"/>
     <col min="10" max="10" width="20.1891891891892" customWidth="1"/>
-    <col min="11" max="11" width="41.0990990990991" customWidth="1"/>
-    <col min="12" max="12" width="63.1981981981982" customWidth="1"/>
+    <col min="11" max="11" width="13.9009009009009" customWidth="1"/>
+    <col min="12" max="12" width="92.2972972972973" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1164,10 +1164,10 @@
         <v>333</v>
       </c>
       <c r="C2" s="3">
-        <v>3333</v>
+        <v>33333333</v>
       </c>
       <c r="D2">
-        <v>32333</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1199,10 +1199,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>7773</v>
+        <v>7773333</v>
       </c>
       <c r="D3">
-        <v>42323</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1216,8 +1216,14 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>888</v>
       </c>
       <c r="D4">
-        <v>5332</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1245,8 +1251,14 @@
       <c r="J4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>1111</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1273,6 +1285,12 @@
       </c>
       <c r="J5" t="s">
         <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/MyFiles/Excel/ExcelDemo.xlsx
+++ b/MyFiles/Excel/ExcelDemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11922" windowHeight="7380"/>
+    <workbookView windowWidth="17237" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <t>Chinese|str</t>
   </si>
   <si>
-    <t>Bike|dbl</t>
+    <t>Bike|dbl|33</t>
   </si>
   <si>
-    <t>Nike|bool</t>
+    <t>Nike|bool|1</t>
   </si>
   <si>
     <t>CWK|dbl</t>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:L3873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1170,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1199,12 +1199,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>7773333</v>
+        <v>77733332</v>
       </c>
-      <c r="D3">
-        <v>32</v>
-      </c>
-      <c r="E3">
+      <c r="D3"/>
+      <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -1231,14 +1229,12 @@
         <v>5555</v>
       </c>
       <c r="C4" s="3">
-        <v>888</v>
+        <v>88822</v>
       </c>
       <c r="D4">
         <v>42</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
+      <c r="E4"/>
       <c r="G4">
         <v>3</v>
       </c>
@@ -1266,13 +1262,13 @@
         <v>33333333</v>
       </c>
       <c r="C5" s="3">
-        <v>1111</v>
+        <v>111133</v>
       </c>
       <c r="D5">
         <v>53</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>2</v>

--- a/MyFiles/Excel/ExcelDemo.xlsx
+++ b/MyFiles/Excel/ExcelDemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17237" windowHeight="7380"/>
+    <workbookView windowWidth="27952" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>ID|str</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Chinese|str</t>
   </si>
   <si>
-    <t>Bike|dbl|33</t>
+    <t>Bike|dbl|66</t>
   </si>
   <si>
     <t>Nike|bool|1</t>
@@ -36,7 +36,7 @@
     <t>CWK|dbl</t>
   </si>
   <si>
-    <t>BB|long</t>
+    <t>BB|long|555</t>
   </si>
   <si>
     <t>AA|List&lt;int&gt;</t>
@@ -54,13 +54,19 @@
     <t>XX|Dictionary&lt;string, List&lt;double&gt;&gt;</t>
   </si>
   <si>
+    <t>NNNK|Dictionary&lt;string, List&lt;List&lt;double&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>333hell</t>
+  </si>
+  <si>
     <t>1,2,3</t>
   </si>
   <si>
     <t>"a","b"</t>
   </si>
   <si>
-    <t>{"a",true},{"b",false},{"c",true}</t>
+    <t>{"k232",true},{"b",false},{"c",true}</t>
   </si>
   <si>
     <t>{"a",new List&lt;double&gt;{2d}},{"b",new List&lt;double&gt;{}},{"c",new List&lt;double&gt;{1d,2d,3d}}</t>
@@ -75,16 +81,25 @@
     <t>"c"</t>
   </si>
   <si>
+    <t>{"a332",true},{"b",false},{"c",true}</t>
+  </si>
+  <si>
     <t>1,5</t>
   </si>
   <si>
     <t>"d"</t>
   </si>
   <si>
+    <t>{"a3333",true},{"b",false},{"c",true}</t>
+  </si>
+  <si>
     <t>3,2</t>
   </si>
   <si>
     <t>"e"</t>
+  </si>
+  <si>
+    <t>{"a",true},{"b",false},{"c",true}</t>
   </si>
 </sst>
 </file>
@@ -1098,27 +1113,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3873"/>
+  <dimension ref="A1:M3873"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.4684684684685" customWidth="1"/>
-    <col min="3" max="3" width="14.7927927927928" customWidth="1"/>
-    <col min="4" max="4" width="13.5405405405405" customWidth="1"/>
-    <col min="5" max="5" width="22.5045045045045" customWidth="1"/>
-    <col min="7" max="7" width="33.972972972973" customWidth="1"/>
-    <col min="8" max="8" width="16.2792792792793" customWidth="1"/>
-    <col min="9" max="9" width="15.6126126126126" customWidth="1"/>
-    <col min="10" max="10" width="20.1891891891892" customWidth="1"/>
-    <col min="11" max="11" width="13.9009009009009" customWidth="1"/>
-    <col min="12" max="12" width="92.2972972972973" customWidth="1"/>
+    <col min="2" max="2" width="19.4690265486726" customWidth="1"/>
+    <col min="3" max="3" width="14.7964601769912" customWidth="1"/>
+    <col min="4" max="4" width="13.5398230088496" customWidth="1"/>
+    <col min="5" max="5" width="22.5044247787611" customWidth="1"/>
+    <col min="7" max="7" width="33.9734513274336" customWidth="1"/>
+    <col min="8" max="8" width="16.283185840708" customWidth="1"/>
+    <col min="9" max="9" width="15.6106194690265" customWidth="1"/>
+    <col min="10" max="10" width="20.1858407079646" customWidth="1"/>
+    <col min="11" max="11" width="11.6902654867257" customWidth="1"/>
+    <col min="12" max="12" width="49.070796460177" customWidth="1"/>
+    <col min="13" max="13" width="46.3097345132743" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,13 +1171,16 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>333</v>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>33333333</v>
@@ -1172,23 +1191,20 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1196,29 +1212,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>77733332</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="E3">
+        <v>1010</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1231,27 +1246,21 @@
       <c r="C4" s="3">
         <v>88822</v>
       </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
-      <c r="E4"/>
-      <c r="G4">
-        <v>3</v>
-      </c>
+      <c r="D4"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1274,19 +1283,19 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -20645,7 +20654,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -20662,7 +20671,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
